--- a/biology/Zoologie/Buthus_paris/Buthus_paris.xlsx
+++ b/biology/Zoologie/Buthus_paris/Buthus_paris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buthus paris est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Algérie, à l'est d'Alger, et en Tunisie, dans l'Atlas[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Algérie, à l'est d'Alger, et en Tunisie, dans l'Atlas.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Buthus paris mesure de 60 à 75 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Buthus paris mesure de 60 à 75 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Androctonus paris par Carl Ludwig Koch en 1839. Elle est considérée comme une sous-espèce de Buthus occitanus par Alekseï Bialynitski-Biroulia en 1903[2]. Elle est élevée au rang d'espèce par Wilson R. Lourenço en 2003[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Androctonus paris par Carl Ludwig Koch en 1839. Elle est considérée comme une sous-espèce de Buthus occitanus par Alekseï Bialynitski-Biroulia en 1903. Elle est élevée au rang d'espèce par Wilson R. Lourenço en 2003.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée  en référence à Pâris[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée  en référence à Pâris.
 </t>
         </is>
       </c>
